--- a/2des/03-bcd/aula09/manutencoes.xlsx
+++ b/2des/03-bcd/aula09/manutencoes.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2023\2des\03-bcd\aula09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F205AD5B-0B28-40EC-A99A-E2DD3BC1EEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B954C6C4-4847-458D-96CB-4142A922073A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1B55CEB4-0762-4550-AE30-8C3E62E36C6C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="4" xr2:uid="{1B55CEB4-0762-4550-AE30-8C3E62E36C6C}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
+    <sheet name="veiculo" sheetId="3" r:id="rId2"/>
+    <sheet name="funcionario" sheetId="4" r:id="rId3"/>
+    <sheet name="telefone" sheetId="6" r:id="rId4"/>
+    <sheet name="manutencao" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="63">
   <si>
     <t>inicio_manutencao</t>
   </si>
@@ -193,12 +197,36 @@
   </si>
   <si>
     <t>19-06486-6449,19-53266-7923</t>
+  </si>
+  <si>
+    <t>19-72077-0521</t>
+  </si>
+  <si>
+    <t>19-06078-6843</t>
+  </si>
+  <si>
+    <t>19-06486-6449</t>
+  </si>
+  <si>
+    <t>19-53266-7923</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>inicio</t>
+  </si>
+  <si>
+    <t>fim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,9 +256,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CDF4A6-A4A7-45AD-9CDF-9FFBE868B1D3}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1514,4 +1543,850 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1FDFDB-D6F9-4C04-8DA5-149356806AB4}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>2005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E26640A-197A-4491-993A-7E8EC2FA403F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>48482</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>48542</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>48522</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>48502</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>48562</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775B5404-D874-452E-BCBD-8B993BDB1BA2}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>48482</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>48482</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>48542</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>48522</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>48522</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>48502</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>48562</v>
+      </c>
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D483C4-8038-4833-9E83-84E6B15F1724}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>48482</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44617</v>
+      </c>
+      <c r="E2" s="2">
+        <v>44624</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>48542</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44633</v>
+      </c>
+      <c r="E3" s="2">
+        <v>44641</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>48522</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44649</v>
+      </c>
+      <c r="E4" s="2">
+        <v>44656</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>48502</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44665</v>
+      </c>
+      <c r="E5" s="2">
+        <v>44675</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>48502</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E6" s="2">
+        <v>44688</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>48482</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44697</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44706</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>48482</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44717</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44722</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>48502</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44737</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44744</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>48482</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44757</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44761</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <v>48502</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44777</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44783</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>48562</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44797</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44804</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>48522</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44800</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44808</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>48542</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44803</v>
+      </c>
+      <c r="E14" s="2">
+        <v>44808</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15">
+        <v>48482</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44806</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44811</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>48562</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44809</v>
+      </c>
+      <c r="E16" s="2">
+        <v>44819</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17">
+        <v>48522</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44812</v>
+      </c>
+      <c r="E17" s="2">
+        <v>44819</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>48502</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44815</v>
+      </c>
+      <c r="E18" s="2">
+        <v>44819</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>48502</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44818</v>
+      </c>
+      <c r="E19" s="2">
+        <v>44827</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20">
+        <v>48562</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44821</v>
+      </c>
+      <c r="E20" s="2">
+        <v>44825</v>
+      </c>
+      <c r="F20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>48562</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44830</v>
+      </c>
+      <c r="E21" s="2">
+        <v>44840</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>48562</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44839</v>
+      </c>
+      <c r="E22" s="2">
+        <v>44844</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>48542</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44848</v>
+      </c>
+      <c r="E23" s="2">
+        <v>44858</v>
+      </c>
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24">
+        <v>48542</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44857</v>
+      </c>
+      <c r="E24" s="2">
+        <v>44860</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>48542</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44866</v>
+      </c>
+      <c r="E25" s="2">
+        <v>44875</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>48482</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44875</v>
+      </c>
+      <c r="E26" s="2">
+        <v>44878</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>48542</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44884</v>
+      </c>
+      <c r="E27" s="2">
+        <v>44890</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>